--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -20,11 +20,11 @@
     <sheet name="예외사항" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">게시판!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">게시판!$A$1:$M$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">관리자!$A$1:$L$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">제품!$A$1:$K$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="597">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,13 +106,6 @@
   </si>
   <si>
     <t>{
-  "id": "A1",
-  "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "에러 발생" : "아이디 / 비밀번호를 확인해주세요"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,15 +309,6 @@
     <t>{
 "title" : "무료 급여명세서 사용을 하지 않았는데 실행이 안됩니다.",
 "answer" : true,
-"addDate" : "2025.01.03",
-"userId" : "A1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"title" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.",
-"answer" : false,
 "addDate" : "2025.01.03",
 "userId" : "A1"
 }</t>
@@ -706,18 +690,6 @@
 "productId" : "C1" 
 }
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ 
-"id" : 2,
-"text" : "알기 쉽게 잘 설명해주세요",
-"rating" : 5,
-"addDate" : "2025-01-13",
-"modifiedDate" : " ",
-"username" : "sangmin1234",
-"productId" : "S1" 
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1394,18 +1366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"name":"홍길동",
-"department": "기획부" ,
-"position":"직원",
-"hireDate":"2019-03-01",
-"phoneNumber":"010-4567-8901",
-"user_id":"A2",
-"payrollTemplate":"2"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>포지션별 내역 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1490,15 +1450,6 @@
   </si>
   <si>
     <t>알람 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id " : "sangsu1234",
-"realName" : "이상근",
-"email" : "sangsu1111@gmail.com",
-"phoneNumber" : "010-1234-5678"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1590,20 +1541,6 @@
   <si>
     <t>{
   "에러 발생" : "무료 이용 횟수를 초과하였습니다"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id" : "sangsu1234",
-"point" : 100
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id" : "sangsu1234",
-"point" : -100
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2791,15 +2728,6 @@
   </si>
   <si>
     <t>{
-"id " : "sangsu1234",
-"realName" : "이상근",
-"email" : "sangsu1111@gmail.com",
-"phoneNumber" : "010-1234-5678"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "에러 발생" : "존재하지 않은 게시판ID입니다"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2897,13 +2825,6 @@
   </si>
   <si>
     <t>getReviewById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "id": "A1",
-  "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2953,26 +2874,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"id" : "C2",
-"price" : 15000,
-"category" : "강의",
-"title": "급여 계산 방법",
-"addDate" : "2025-01-13",
-"description" : "직원 및 알바생 급여 계산 방법"
-}
-{
-"id" : "S2",
-"price" : 15000,
-"category" : "구독권",
-"title": "1개월 구독권",
-"startDate" : "2025-01-13",
-"expireDate" : "2025-02-12 "
-}
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3008,15 +2909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"title" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.",
-"answer" : false,
-"addDate" : "2025.01.03",
-"username" : "A1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/product/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3204,13 +3096,6 @@
   </si>
   <si>
     <t>{
-"id " : "sangsu1234",
-"phoneNumber" : "010-1455-4471"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "userName " : "admin",
 "businessNumber" : "111-11-11111",
 "businessType" : "어업",
@@ -3240,6 +3125,118 @@
     <t>{
 "userId":"sangsu1234",
 "productId":"C1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"type" : "course",
+"id" : "C2",
+"price" : 15000,
+"category" : "강의",
+"title": "급여 계산 방법",
+"addDate" : "2025-01-13",
+"description" : "직원 및 알바생 급여 계산 방법"
+}
+{
+"type" : "payrollsubcription",
+"id" : "S2",
+"price" : 15000,
+"category" : "구독권",
+"title": "1개월 구독권",
+"startDate" : "2025-01-13",
+"expireDate" : "2025-02-12 "
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "userName": "sangsu1234",
+ "companyName": "좋은 상사",
+"name" : "이상수",
+ "password": "1234",
+"gender" : "MALE",
+"email" : "sangsu@gmail.com",
+"phoneNumber" : "010-1234-5678", 
+"businessNumber" : "123-45-67890", 
+"businessType" : "도소매업",
+"existBusinessOperator" : true, 
+"point" :  100,
+"role" : "회원" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "userName": "admin",
+  "password": "1234"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Login successful"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName " : "sangsu1234",
+"phoneNumber" : "010-1455-4471"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName " : "sangsu1234",
+"realName" : "이상근",
+"email" : "sangsu1111@gmail.com",
+"phoneNumber" : "010-1234-5678"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName" : "sangsu1234",
+"point" : 100
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName":"sangsu1234",
+"productId":"C1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"title" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.",
+"answer" : false,
+"addDate" : "2025.01.03",
+"userName" : "sangsu1234"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+"id" : 2,
+"text" : "알기 쉽게 잘 설명해주세요",
+"rating" : 5,
+"addDate" : "2025-01-13",
+"modifiedDate" : " ",
+"userName" : "sangmin1234",
+"productId" : "S1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"name":"홍길동",
+"department": "기획부" ,
+"position":"직원",
+"hireDate":"2019-03-01",
+"phoneNumber":"010-4567-8901",
+"userName":"sangsu1234",
+"payrollTemplate":"2"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3548,6 +3545,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3585,21 +3597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3882,11 +3879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3910,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -3933,175 +3929,175 @@
       <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="K1" s="54" t="s">
-        <v>555</v>
+      <c r="J1" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>544</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>234</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="198" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
       <c r="B3" s="18" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
       <c r="B4" s="18" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
       <c r="B5" s="18" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="264" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
+      <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>587</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
@@ -4110,571 +4106,567 @@
         <v>12</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
       <c r="B7" s="23" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J7" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="23"/>
       <c r="C8" s="25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
+      <c r="B9" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="38" t="s">
-        <v>561</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>563</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J10" s="38" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="23" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>514</v>
+        <v>591</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>262</v>
+        <v>591</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="23" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
       <c r="B13" s="27" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="F14" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
     </row>
-    <row r="15" spans="1:12" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
       <c r="B15" s="27" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="27" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="23" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>272</v>
+        <v>592</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="23" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>273</v>
+        <v>592</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>124</v>
+    <row r="18" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>122</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="132" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
       <c r="B19" s="23" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="23" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
     </row>
-    <row r="21" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
-        <v>126</v>
+    <row r="21" spans="1:12" ht="132" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>124</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="23" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N23">
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N23"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A18:A20"/>
@@ -4691,7 +4683,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="I25:L27"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4715,10 +4707,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4738,854 +4730,854 @@
       <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="K1" s="54" t="s">
-        <v>555</v>
+      <c r="J1" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>544</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>226</v>
+      <c r="A2" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="55" t="s">
-        <v>411</v>
+      <c r="C2" s="42" t="s">
+        <v>404</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="55" t="s">
-        <v>483</v>
+      <c r="C3" s="42" t="s">
+        <v>476</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="55" t="s">
-        <v>485</v>
+      <c r="C4" s="42" t="s">
+        <v>478</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>24</v>
+      <c r="A5" s="53" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="24"/>
       <c r="C6" s="39" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="24"/>
       <c r="C7" s="39" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="24"/>
       <c r="C8" s="39" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="J8" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="35"/>
       <c r="C9" s="39" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
-        <v>36</v>
+      <c r="A10" s="55" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="39" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="24"/>
       <c r="C11" s="39" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="24"/>
       <c r="C13" s="39" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="24"/>
       <c r="C14" s="39" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
-        <v>72</v>
+      <c r="A15" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="39" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="24"/>
       <c r="C16" s="39" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="24"/>
       <c r="C17" s="39" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="24"/>
       <c r="C18" s="39" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="24"/>
       <c r="C19" s="39" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="J19" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>253</v>
+      <c r="A20" s="52" t="s">
+        <v>249</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="23"/>
       <c r="C22" s="39" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="16" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="165" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="23"/>
       <c r="C23" s="39" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="9" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="23"/>
       <c r="C24" s="39" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="16" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="27" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="28" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="27" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="29" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5609,7 +5601,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="J7:K8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5626,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -5646,584 +5638,586 @@
       <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>555</v>
+      <c r="I1" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>544</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="280.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>73</v>
+      <c r="A2" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="39" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="57"/>
       <c r="B5" s="39" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="I5" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="J5" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="K5" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="39" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
       <c r="B7" s="39" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K7" s="38"/>
     </row>
-    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
       <c r="B8" s="39" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="39" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="39" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="39" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>86</v>
+      <c r="A12" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="39" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="39" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K14" s="38"/>
     </row>
-    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
       <c r="B15" s="39" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>118</v>
+      <c r="A16" s="49" t="s">
+        <v>116</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="39" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I17" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
       <c r="B18" s="39" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="39" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K19">
-    <filterColumn colId="10">
-      <filters blank="1"/>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="5">
@@ -6241,10 +6235,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="M1:N1"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6256,22 +6251,22 @@
     <col min="5" max="5" width="27.875" customWidth="1"/>
     <col min="6" max="6" width="53.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.625" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="45.625" customWidth="1"/>
     <col min="10" max="10" width="42.125" customWidth="1"/>
     <col min="11" max="11" width="21.75" customWidth="1"/>
     <col min="12" max="12" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6286,7 +6281,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6294,579 +6289,585 @@
       <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>555</v>
+      <c r="K1" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>544</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
       <c r="B3" s="24" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
       <c r="B4" s="24" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="24" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="E7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>528</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
       <c r="B8" s="24" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55"/>
       <c r="B9" s="35" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="24" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
       <c r="B11" s="24"/>
       <c r="C11" s="39" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>114</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
       <c r="B13" s="22" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
       <c r="B14" s="22" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="23"/>
       <c r="C15" s="39" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>136</v>
+        <v>595</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>136</v>
+        <v>595</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
       <c r="B16" s="23"/>
       <c r="C16" s="39" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="32" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M16">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -6882,7 +6883,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6906,10 +6907,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6924,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6932,567 +6933,567 @@
       <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>555</v>
+      <c r="K1" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>544</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="38" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="K2" s="54"/>
+        <v>580</v>
+      </c>
+      <c r="K2" s="41"/>
       <c r="L2" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="23" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="23" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>242</v>
+        <v>596</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>242</v>
+        <v>596</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="25" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>102</v>
+      <c r="A9" s="49" t="s">
+        <v>100</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="25" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="23"/>
       <c r="C10" s="25" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="23"/>
       <c r="C12" s="25" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="23"/>
       <c r="C13" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>451</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="F14" s="39" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="L14" s="38"/>
-      <c r="M14" s="58"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="38" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="L15" s="38"/>
-      <c r="M15" s="58"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="38" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L16" s="38"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="38" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L17" s="38"/>
-      <c r="M17" s="58"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>582</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>583</v>
+        <v>570</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>572</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="38"/>
       <c r="I18" s="3" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M18"/>
   <mergeCells count="3">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>

--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\My Project\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\MyProject\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="605">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>사용자 로그인</t>
-  </si>
-  <si>
-    <t>POST /api/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -120,10 +116,6 @@
   </si>
   <si>
     <t>기존 사용자 로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1682,10 +1674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET/api/purchase-history/product-name/{product-name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/user-product/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1711,30 +1699,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/user/modify-pw-by-id-and-phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/user/download/formation-data/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/user/use/free-payrolltemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/api/user/calender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/user/add/point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/use/point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET /api/authority/id/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1857,10 +1829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/cart/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/api/cart/id/delete/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1924,14 +1892,6 @@
     <t>{
 "id": "sangsu1234"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/user-business-number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/user-data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3077,10 +3037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET/api/employee/all-by-admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">{
 "에러발생 : 정상적인 요청이 아닙니다"
 }
@@ -3167,13 +3123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "userName": "admin",
-  "password": "1234"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Login successful"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3198,12 +3147,6 @@
 "userName" : "sangsu1234",
 "point" : 100
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userName":"sangsu1234",
-"productId":"C1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3237,6 +3180,103 @@
 "userName":"sangsu1234",
 "payrollTemplate":"2"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName":"sangsu1234",
+"productId":"C1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/employee/all-by-admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName " : "sangsu1234",
+"phoneNumber" : "010-1455-4471"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/use/free-payrolltemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/add/point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/use/point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/purchase-history/product-name/{product-name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /api/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "userName": "admin",
+  "password": "1234"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/modify-pw-by-id-and-phonenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/user-business-number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/user-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName " : "sangsu1234",
+"realName" : "이상근",
+"email" : "sangsu1111@gmail.com",
+"phoneNumber" : "010-1234-5678"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/cart/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3881,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3906,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -3930,151 +3970,151 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="18" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="18" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="18" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
@@ -4082,300 +4122,308 @@
         <v>7</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="J6" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
       <c r="B7" s="23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>10</v>
+        <v>593</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="23"/>
       <c r="C8" s="25" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>17</v>
+        <v>595</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="L8" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
       <c r="B9" s="23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
       <c r="B10" s="23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>289</v>
+        <v>597</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="L10" s="38"/>
+        <v>545</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
       <c r="B11" s="23" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>343</v>
+        <v>601</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="L11" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
       <c r="B12" s="23" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>342</v>
+        <v>599</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J12" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="K12" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="K12" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="36" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="52"/>
       <c r="B13" s="27" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>291</v>
+        <v>588</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
@@ -4384,86 +4432,88 @@
     <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="27" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>293</v>
+        <v>589</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
+      <c r="L16" s="38" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
       <c r="B17" s="23" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>294</v>
+        <v>591</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
@@ -4471,97 +4521,97 @@
     </row>
     <row r="18" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
       <c r="B19" s="23" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="J19" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
       <c r="B20" s="23" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>285</v>
+        <v>592</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
@@ -4569,97 +4619,97 @@
     </row>
     <row r="21" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
       <c r="B22" s="23" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
       <c r="B23" s="23" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -4682,8 +4732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="G7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4707,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4731,853 +4781,853 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="42" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>556</v>
-      </c>
       <c r="L2" s="18" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="18"/>
       <c r="C3" s="42" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>556</v>
-      </c>
       <c r="L3" s="18" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="18"/>
       <c r="C4" s="42" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>226</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="24"/>
       <c r="C6" s="39" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="24"/>
       <c r="C7" s="39" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="24"/>
       <c r="C8" s="39" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="J8" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="35"/>
       <c r="C9" s="39" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="39" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="24"/>
       <c r="C11" s="39" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
       <c r="B13" s="24"/>
       <c r="C13" s="39" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
       <c r="B14" s="24"/>
       <c r="C14" s="39" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="39" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="24"/>
       <c r="C16" s="39" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="24"/>
       <c r="C17" s="39" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="24"/>
       <c r="C18" s="39" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="24"/>
       <c r="C19" s="39" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="J19" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="52"/>
       <c r="B21" s="27" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
       <c r="B22" s="23"/>
       <c r="C22" s="39" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J22" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K22" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="165" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
       <c r="B23" s="23"/>
       <c r="C23" s="39" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K23" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="23"/>
       <c r="C24" s="39" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
       <c r="B25" s="27" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
       <c r="B26" s="27" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
       <c r="B27" s="27" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="28" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="29" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -5600,8 +5650,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5618,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -5639,577 +5689,579 @@
         <v>6</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="280.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="57"/>
       <c r="B3" s="39" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="57"/>
       <c r="B4" s="39" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="346.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="57"/>
       <c r="B5" s="39" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="I5" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="39" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50"/>
       <c r="B8" s="39" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="39" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
       <c r="B10" s="39" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
       <c r="B11" s="39" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="39" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="39" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>603</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="K14" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
       <c r="B15" s="39" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50"/>
       <c r="B17" s="39" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="I17" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
       <c r="B18" s="39" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I18" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
       <c r="B19" s="39" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I19" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -6218,6 +6270,9 @@
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="5">
@@ -6238,7 +6293,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -6263,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6281,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6290,574 +6345,574 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
       <c r="B3" s="24" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
       <c r="B4" s="24" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55"/>
       <c r="B5" s="24"/>
       <c r="C5" s="39" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A6" s="55"/>
       <c r="B6" s="24" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>520</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
       <c r="B8" s="24" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="35" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" s="24" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="24"/>
       <c r="C11" s="39" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
       <c r="B13" s="22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
       <c r="B14" s="22" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
       <c r="B15" s="23"/>
       <c r="C15" s="39" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
       <c r="B16" s="23"/>
       <c r="C16" s="39" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="32" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -6882,8 +6937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A3" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6907,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6925,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6934,217 +6989,217 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="38" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="M3" s="38"/>
+        <v>559</v>
+      </c>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
       <c r="B4" s="23" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="M4" s="38"/>
+        <v>541</v>
+      </c>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="M5" s="38"/>
+        <v>570</v>
+      </c>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
       <c r="B6" s="23" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="M6" s="38"/>
+        <v>570</v>
+      </c>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
       <c r="B7" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
@@ -7152,61 +7207,61 @@
     <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="25" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="25" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -7215,27 +7270,27 @@
       <c r="A10" s="50"/>
       <c r="B10" s="23"/>
       <c r="C10" s="25" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -7244,27 +7299,27 @@
       <c r="A11" s="50"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -7273,29 +7328,29 @@
       <c r="A12" s="50"/>
       <c r="B12" s="23"/>
       <c r="C12" s="25" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -7304,62 +7359,62 @@
       <c r="A13" s="51"/>
       <c r="B13" s="23"/>
       <c r="C13" s="25" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="F14" s="39" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="45"/>
@@ -7367,30 +7422,30 @@
     <row r="15" spans="1:13" ht="264" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="38" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="45"/>
@@ -7398,32 +7453,32 @@
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="38" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="45"/>
@@ -7431,63 +7486,63 @@
     <row r="17" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
       <c r="B17" s="38" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="38"/>
       <c r="I18" s="3" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>

--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\MyProject\Dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\My Project\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
     <sheet name="관리자" sheetId="4" r:id="rId2"/>
-    <sheet name="제품" sheetId="5" r:id="rId3"/>
-    <sheet name="게시판" sheetId="7" r:id="rId4"/>
+    <sheet name="게시판" sheetId="7" r:id="rId3"/>
+    <sheet name="제품" sheetId="5" r:id="rId4"/>
     <sheet name="직원" sheetId="6" r:id="rId5"/>
     <sheet name="예외사항" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">게시판!$A$1:$M$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">게시판!$A$1:$M$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">관리자!$A$1:$L$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">제품!$A$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">제품!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="620">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>사용자 로그인</t>
+  </si>
+  <si>
+    <t>POST /api/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -119,6 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>POST/api/user/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"정상 로그아웃 되었습니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,13 +198,6 @@
   </si>
   <si>
     <t>관리자가 가이드를 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"title" : "나의 직업 정보 수정 이용 가이드",
-"text" : "마이 페이지에 있는 직원 정보 수정 탭을 눌러 수정하기 버튼을 클릭하여 수정하십시오"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,14 +249,6 @@
 "title" :  "급여명세서 이용 가이드"
 }
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"noticeTitle" : "24.02.14버전 업데이트",
-"text" : "25.01.13일 시점으로 버전 업데이트가 되어 마이페이지 부분이 일부  수정되었습니다",
-"addDate" : "2025.01.13"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -356,12 +349,6 @@
   </si>
   <si>
     <t>관리자가 서식 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"title" : "급여명세서 양식"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직원/알바생 명세서 양식의 공제 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>급여명세서 양식</t>
   </si>
   <si>
@@ -704,25 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
-"name" : "동영상 목록"
-}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"강의가 정상적으로 삭제되었습니다"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -895,16 +859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"boardId" : 1,
-"boardTitle" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.",
-"text" : "저도 궁금해요",
-"addDate" : "2025-01-03",
-"authorityName" : 회원
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보드id를 통한 댓글 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1016,25 +970,8 @@
   </si>
   <si>
     <t>{
-"id": 1,
-"name":"홍길동",
-"department": "기획부" ,
-"position":"대리",
-"hireDate":"2019-03-01",
-"phoneNumber":"010-4567-8901",
-"user_id":"A2",
-"payrollTemplate":"2"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "에러 발생" : "존재하지 않는 이름입니다."
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/employee?id=00&amp;name=00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1070,14 +1007,6 @@
   </si>
   <si>
     <t>{
-"id" : 1,
-"name":"건강보험",
-"amount":3.545
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
 "startPayrollPeriod":"2025-01-13",
 "lastPayrollPeriod":"2025-02-12",
 "paymentDate":"2025-02-12",
@@ -1470,23 +1399,6 @@
     <t>{
   "에러 발생" : "다운로드에 실패하였습니다"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"startPayrollPeriod":"2025-01-13",
-"lastPayrollPeriod":"2025-02-12",
-"paymentDate":"2025-02-12",
-"salary":2500000,
-"bonus":100000,
-"mealAllowance":100000,
-"transportAllowance":0,
-"otherAllowance":0,
-"deductionName":1,
-"freeLancer": "not",
-"employeeId" : 2
-}
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1674,6 +1586,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET/api/purchase-history/product-name/{product-name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET/api/user-product/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,14 +1615,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>POST/api/user/modify-pw-by-id-and-phonenumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET/api/user/download/formation-data/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>POST/api/user/use/free-payrolltemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>POST/api/user/calender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>POST/api/user/add/point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/use/point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET /api/authority/id/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1773,10 +1705,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET/api/payrolltemplate/id/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/category/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1789,10 +1717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET/api/employee/name/{name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/employee/position/{position}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1825,11 +1749,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/payrolltemplate/delete/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/cart/id/delete/{id}</t>
+    <t>POST/api/cart/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1865,10 +1785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/deduction-and-tax/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST api/payrolltemplate/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1892,6 +1808,14 @@
     <t>{
 "id": "sangsu1234"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/user-business-number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/user-data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2378,59 +2302,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getAllDeductionAndTaxs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> name를 통한 공제사항 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET/api/deduction-and-tax/id/{name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "에러 발생" : "존재하지 않는 공제명입니다."
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAllPayrollTemplates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPayrollTemplateById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>savePayrollTemplate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[
-{
-"id" : 1,
-"name":"건강보험",
-"amount":3.545
-}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>saveDeductionAndTax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deleteleDeductionAndTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDeductionAndTaxByNames</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDeductionAndTaxById</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2643,10 +2527,6 @@
   </si>
   <si>
     <t>GET/api/product/payrollsubscription/enrollments-and-income</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET/api/product/category/enrollments-and-income</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2873,22 +2753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-"startPayrollPeriod":"2025-01-13",
-"lastPayrollPeriod":"2025-02-12",
-"paymentDate":"2025-02-12",
-"salary":3000000,
-"bonus":100000,
-"mealAllowance":100000,
-"transportAllowance":0,
-"otherAllowance":0,
-"deductionName":1,
-"freeLancer":not,
-"employeeId" : 2
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3075,12 +2939,6 @@
 "description" : "직원 및 알바생 급여 계산 방법",
 "id" : "C1"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userId":"sangsu1234",
-"productId":"C1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3107,18 +2965,8 @@
   </si>
   <si>
     <t>{
- "userName": "sangsu1234",
- "companyName": "좋은 상사",
-"name" : "이상수",
- "password": "1234",
-"gender" : "MALE",
-"email" : "sangsu@gmail.com",
-"phoneNumber" : "010-1234-5678", 
-"businessNumber" : "123-45-67890", 
-"businessType" : "도소매업",
-"existBusinessOperator" : true, 
-"point" :  100,
-"role" : "회원" 
+  "userName": "admin",
+  "password": "1234"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3151,23 +2999,8 @@
   </si>
   <si>
     <t>{
-"title" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.",
-"answer" : false,
-"addDate" : "2025.01.03",
-"userName" : "sangsu1234"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ 
-"id" : 2,
-"text" : "알기 쉽게 잘 설명해주세요",
-"rating" : 5,
-"addDate" : "2025-01-13",
-"modifiedDate" : " ",
-"userName" : "sangmin1234",
-"productId" : "S1" 
-}</t>
+"userName":"sangsu1234",
+"productId":"C1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3183,100 +3016,354 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
+    <t>직원/알바생 명세서 양식의 공제 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllDeductionAndTaxs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"name":"건강보험",
+"amount":3.545
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDeductionAndTaxById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDeductionAndTaxByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "에러 발생" : "존재하지 않는 공제명입니다."
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllPayrollTemplates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"id" : 1,
+"startPayrollPeriod":"2025-01-13",
+"lastPayrollPeriod":"2025-02-12",
+"paymentDate":"2025-02-12",
+"salary":2500000,
+"bonus":100000,
+"mealAllowance":100000,
+"transportAllowance":0,
+"otherAllowance":0,
+"deductionName":1,
+"freeLancer": "not freelancer"
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPayrollTemplateById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/cart/delete/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+{
+"name":"건강보험",
+"amount":3.545
+}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/payrolltemplate/delete?employeeId=00&amp;payrolltemplateId=00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/deduction-and-tax/name/{name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/deduction-and-tax/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+"name":"소득세",
+"amount":6,300
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/payrolltemplate/id/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/employee/all-by-admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/employee/name/{name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/employee?id=00&amp;name=00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": 1,
+"name":"홍길동",
+"department": "기획부" ,
+"position":"대리",
+"hireDate":"2019-03-01",
+"phoneNumber":"010-4567-8901",
+"userName":"sangsu1234",
+"payrollTemplate":"2"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/product/category/enrollments-and-income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": 3,
+"title" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName": "ssy1234",
+"companyName": "행복한 상사",
+"name" : "유서영",
+"password": "1234",
+"gender" : "FEMALE",
+"email" : "ssy@gmail.com",
+"phoneNumber" : "010-4141-8585", 
+"businessNumber" : "111-22-55555", 
+"businessType" : "도소매업",
+"existBusinessOperator" : true
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id" : 2,
+"title" : "나의 직업 정보 수정 이용 가이드",
+"text" : "마이 페이지에 있는 직원 정보 수정 탭을 눌러 수정하기 버튼을 클릭하여 수정하십시오"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id" : 2,
+"noticeTitle" : "24.02.14버전 업데이트",
+"text" : "25.01.13일 시점으로 버전 업데이트가 되어 마이페이지 부분이 일부  수정되었습니다"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id" : 2,
+"title" : "급여명세서 양식"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"noticeId" : 2,
+"noticeTitle" : "24.02.14버전 업데이트",
+"text" : "25.01.13일 시점으로 버전 업데이트가 되어 마이페이지 부분이 일부  수정되었습니다"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id" : 2,
+"boardId" : 1,
+"boardTitle" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.",
+"text" : "저도 궁금해요"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+"id" : 2,
+"text" : "알기 쉽게 잘 설명해주세요",
+"rating" : 5,
+"productId" : "S1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ 
+"id" : 2,
+"text" : "알기 쉽게 잘 설명해주세요",
+"rating" : 5,
+"addDate" : "2025-01-13",
+"modifiedDate" : "2025-01-13",
+"userName" : "sangmin1234",
+"productId" : "S1" 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"type" : "course",
+"id" : "C2",
+"price" : 15000,
+"category" : "강의",
+"title": "급여 계산 방법",
+"addDate" : "2025-01-13",
+"description" : "직원 및 알바생 급여 계산 방법"
+}
+{
+"type" : "payrollsubcription",
+"id" : "S2",
+"price" : 15000,
+"category" : "구독권",
+"title": "1개월 구독권",
+"startDate" : "2025-01-13",
+"expireDate" : "2025-02-12 "
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id" : 2,
 "userName":"sangsu1234",
 "productId":"C1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET/api/employee/all-by-admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userName " : "sangsu1234",
-"phoneNumber" : "010-1455-4471"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/use/free-payrolltemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/add/point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/use/point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET/api/purchase-history/product-name/{product-name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST /api/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "userName": "admin",
-  "password": "1234"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/logout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/modify-pw-by-id-and-phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/user-business-number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/user-data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userName " : "sangsu1234",
-"realName" : "이상근",
-"email" : "sangsu1111@gmail.com",
-"phoneNumber" : "010-1234-5678"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/cart/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X401</t>
+    <r>
+      <t>{
+"name" : "동영상 목록"
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id" : 3,
+"name":"홍길동",
+"department": "기획부" ,
+"position":"직원",
+"hireDate":"2019-03-01",
+"phoneNumber":"010-4567-8901",
+"payrollTemplate":"2"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id" : 3,
+"startPayrollPeriod":"2025-01-13",
+"lastPayrollPeriod":"2025-02-12",
+"paymentDate":"2025-02-12",
+"salary":3000000,
+"bonus":100000,
+"mealAllowance":100000,
+"transportAllowance":0,
+"otherAllowance":0,
+"freeLancer":"not freelancer"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3461,7 +3548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3521,9 +3608,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3585,6 +3669,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3638,6 +3725,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3919,10 +4024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3946,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -3970,753 +4076,749 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="198" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="18" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="18" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="18" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>378</v>
+      <c r="B6" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>373</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>537</v>
+        <v>12</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="52"/>
-      <c r="B7" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>379</v>
+      <c r="B7" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>595</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52"/>
-      <c r="B9" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>397</v>
+      <c r="B9" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>392</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>543</v>
+        <v>21</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="52"/>
-      <c r="B10" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>381</v>
+      <c r="B10" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>376</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>597</v>
+        <v>279</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>598</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A11" s="52"/>
-      <c r="B11" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="I11" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>587</v>
-      </c>
+      <c r="J11" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52"/>
-      <c r="B12" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>550</v>
+      <c r="I13" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="I14" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
-      <c r="B15" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>550</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>550</v>
+      <c r="B15" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
-      <c r="B16" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38" t="s">
-        <v>590</v>
-      </c>
+      <c r="B16" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>564</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
-      <c r="B17" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>564</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>387</v>
+        <v>118</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>382</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="132" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
-      <c r="B19" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>388</v>
+      <c r="B19" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
-      <c r="B20" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>389</v>
+      <c r="B20" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>384</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>592</v>
+        <v>275</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12" ht="132" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>390</v>
+        <v>120</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
-      <c r="B22" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>391</v>
+      <c r="B22" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="16" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>549</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="132" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
-      <c r="B23" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>392</v>
+      <c r="B23" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>387</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
+        <v>207</v>
+      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N23"/>
+  <autoFilter ref="A1:N23">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A18:A20"/>
@@ -4732,8 +4834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4757,10 +4859,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4781,546 +4883,546 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="46" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="42" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>536</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="18"/>
       <c r="C3" s="42" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="18"/>
       <c r="C4" s="42" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="39" t="s">
-        <v>469</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="38" t="s">
+        <v>456</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>547</v>
+        <v>27</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="39" t="s">
-        <v>470</v>
+      <c r="B6" s="23"/>
+      <c r="C6" s="38" t="s">
+        <v>457</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>555</v>
+        <v>170</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="39" t="s">
-        <v>471</v>
+      <c r="B7" s="23"/>
+      <c r="C7" s="38" t="s">
+        <v>458</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="L7" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="K7" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="39" t="s">
-        <v>472</v>
+      <c r="B8" s="23"/>
+      <c r="C8" s="38" t="s">
+        <v>459</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>31</v>
+        <v>607</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>31</v>
+        <v>607</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>548</v>
+        <v>33</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="39" t="s">
-        <v>473</v>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="38" t="s">
+        <v>460</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>491</v>
+        <v>476</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>477</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>554</v>
+        <v>170</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="39" t="s">
-        <v>474</v>
+        <v>34</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="38" t="s">
+        <v>461</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>536</v>
+        <v>27</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="39" t="s">
-        <v>476</v>
+      <c r="B11" s="23"/>
+      <c r="C11" s="38" t="s">
+        <v>463</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>551</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="L11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>536</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39" t="s">
-        <v>477</v>
+      <c r="B12" s="34"/>
+      <c r="C12" s="38" t="s">
+        <v>464</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>495</v>
+        <v>479</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>481</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>551</v>
+        <v>170</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="39" t="s">
-        <v>478</v>
+      <c r="B13" s="23"/>
+      <c r="C13" s="38" t="s">
+        <v>465</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>551</v>
+        <v>433</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="39" t="s">
-        <v>480</v>
+      <c r="B14" s="23"/>
+      <c r="C14" s="38" t="s">
+        <v>467</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>42</v>
+        <v>610</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>42</v>
+        <v>608</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>551</v>
+        <v>290</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="39" t="s">
-        <v>481</v>
+        <v>67</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="38" t="s">
+        <v>468</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L15" s="38" t="s">
-        <v>551</v>
+        <v>435</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="39" t="s">
-        <v>482</v>
+      <c r="B16" s="23"/>
+      <c r="C16" s="38" t="s">
+        <v>469</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>551</v>
+        <v>436</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="39" t="s">
-        <v>483</v>
+      <c r="B17" s="23"/>
+      <c r="C17" s="38" t="s">
+        <v>470</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L17" s="38" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="39" t="s">
-        <v>484</v>
+      <c r="B18" s="23"/>
+      <c r="C18" s="38" t="s">
+        <v>471</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>62</v>
@@ -5329,305 +5431,305 @@
         <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>64</v>
+        <v>609</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>64</v>
+        <v>609</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>551</v>
+        <v>143</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="39" t="s">
-        <v>450</v>
+      <c r="B19" s="23"/>
+      <c r="C19" s="38" t="s">
+        <v>437</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L19" s="38" t="s">
-        <v>551</v>
+      <c r="J19" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>556</v>
+        <v>240</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="52"/>
-      <c r="B21" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>556</v>
+      <c r="B21" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="39" t="s">
-        <v>451</v>
+      <c r="B22" s="22"/>
+      <c r="C22" s="38" t="s">
+        <v>438</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>473</v>
+      </c>
+      <c r="G22" s="20"/>
       <c r="H22" s="16" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L22" s="38" t="s">
-        <v>551</v>
+        <v>88</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="165" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="39" t="s">
-        <v>398</v>
+      <c r="B23" s="22"/>
+      <c r="C23" s="38" t="s">
+        <v>393</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="G23" s="21"/>
+        <v>474</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="9" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>551</v>
+        <v>88</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="39" t="s">
-        <v>399</v>
+      <c r="B24" s="22"/>
+      <c r="C24" s="38" t="s">
+        <v>394</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="G24" s="21"/>
+        <v>604</v>
+      </c>
+      <c r="G24" s="20"/>
       <c r="H24" s="16" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="L24" s="38" t="s">
-        <v>551</v>
+        <v>88</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
-      <c r="B25" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>557</v>
+      <c r="B25" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
-      <c r="B26" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>557</v>
+      <c r="B26" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
-      <c r="B27" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>557</v>
+      <c r="B27" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>542</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -5648,653 +5750,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="41.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>534</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="280.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="346.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="39" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="39" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="39" t="s">
-        <v>416</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:K19">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="5">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6318,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6333,10 +5792,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>4</v>
+        <v>611</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6345,24 +5804,24 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>453</v>
+      <c r="B2" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>440</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>44</v>
@@ -6371,72 +5830,72 @@
         <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
-      <c r="B3" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>455</v>
+      <c r="B3" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>442</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
-      <c r="B4" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>456</v>
+      <c r="B4" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>443</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>45</v>
@@ -6445,33 +5904,33 @@
         <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="39" t="s">
-        <v>419</v>
+      <c r="B5" s="23"/>
+      <c r="C5" s="38" t="s">
+        <v>414</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>58</v>
@@ -6480,35 +5939,35 @@
         <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="55"/>
-      <c r="B6" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>420</v>
+      <c r="B6" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>415</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>46</v>
@@ -6517,39 +5976,39 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>510</v>
+      <c r="B7" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>496</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>53</v>
@@ -6558,148 +6017,148 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
-      <c r="B8" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>511</v>
+      <c r="B8" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>497</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
-      <c r="B9" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>508</v>
+      <c r="B9" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>494</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>507</v>
+        <v>492</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>493</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
-      <c r="B10" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>465</v>
+      <c r="B10" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>452</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>168</v>
+        <v>612</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>168</v>
+        <v>612</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="39" t="s">
-        <v>515</v>
+      <c r="B11" s="23"/>
+      <c r="C11" s="38" t="s">
+        <v>501</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>60</v>
@@ -6708,211 +6167,211 @@
         <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>421</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>416</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50"/>
-      <c r="B13" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>518</v>
+      <c r="B13" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>504</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
-      <c r="B14" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>499</v>
+      <c r="B14" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>485</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="50"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="39" t="s">
-        <v>422</v>
+      <c r="B15" s="22"/>
+      <c r="C15" s="38" t="s">
+        <v>417</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="39" t="s">
-        <v>423</v>
+      <c r="B16" s="22"/>
+      <c r="C16" s="38" t="s">
+        <v>418</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="32" t="s">
-        <v>502</v>
+      <c r="H16" s="31" t="s">
+        <v>488</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6933,12 +6392,650 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
+    <col min="8" max="8" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="280.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57"/>
+      <c r="B4" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="57"/>
+      <c r="B5" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51"/>
+      <c r="B9" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51"/>
+      <c r="B11" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+      <c r="B14" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51"/>
+      <c r="B15" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+      <c r="B18" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K19">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6947,8 +7044,8 @@
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="69.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.875" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.75" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
@@ -6962,10 +7059,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -6979,8 +7076,8 @@
       <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>443</v>
+      <c r="H1" s="61" t="s">
+        <v>439</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -6989,563 +7086,649 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
-      <c r="B2" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>567</v>
+      <c r="B2" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>552</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>585</v>
+        <v>553</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>599</v>
       </c>
       <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="H2" s="8" t="s">
+        <v>430</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="K2" s="41"/>
+        <v>554</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>430</v>
+      </c>
       <c r="L2" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="M2" s="15"/>
+        <v>430</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="M3" s="36"/>
+        <v>530</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A4" s="50"/>
-      <c r="B4" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>519</v>
+      <c r="B4" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>505</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>189</v>
+        <v>603</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="M4" s="36"/>
+        <v>531</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A5" s="50"/>
-      <c r="B5" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>426</v>
+      <c r="B5" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>421</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>308</v>
+        <v>601</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="M5" s="36"/>
+        <v>530</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>520</v>
+      <c r="B6" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>506</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="L6" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="L6" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="M6" s="36"/>
+      <c r="M6" s="35" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A7" s="50"/>
-      <c r="B7" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>427</v>
+      <c r="B7" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>422</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>93</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>320</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>618</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>581</v>
+      </c>
       <c r="I7" s="9" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+        <v>149</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>579</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
-      <c r="B8" s="25" t="s">
-        <v>428</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>429</v>
+      <c r="B8" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>424</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="K8" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>100</v>
+        <v>567</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>569</v>
+      </c>
       <c r="I9" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25" t="s">
-        <v>441</v>
+      <c r="B10" s="22"/>
+      <c r="C10" s="24" t="s">
+        <v>572</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>575</v>
+      </c>
       <c r="I10" s="9" t="s">
-        <v>195</v>
+        <v>571</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="99" x14ac:dyDescent="0.3">
       <c r="A11" s="50"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
-        <v>440</v>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24" t="s">
+        <v>573</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>432</v>
+        <v>425</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>592</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="I11" s="9" t="s">
-        <v>437</v>
+        <v>589</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>433</v>
+        <v>574</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+        <v>530</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="50"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25" t="s">
-        <v>438</v>
+      <c r="B12" s="22"/>
+      <c r="C12" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>327</v>
+        <v>593</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>594</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>577</v>
+      </c>
       <c r="I12" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+        <v>540</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="51"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="25" t="s">
-        <v>439</v>
+      <c r="B13" s="22"/>
+      <c r="C13" s="24" t="s">
+        <v>428</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>156</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>581</v>
+      </c>
       <c r="I13" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:13" ht="280.5" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="297" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>303</v>
+      <c r="F14" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>581</v>
+      </c>
       <c r="I14" s="9" t="s">
-        <v>260</v>
+        <v>583</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="45"/>
+        <v>544</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="264" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
-      <c r="B15" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>435</v>
+      <c r="B15" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>584</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>304</v>
+        <v>191</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>597</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>576</v>
+      </c>
       <c r="I15" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="45"/>
+        <v>528</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
-      <c r="B16" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>436</v>
+      <c r="B16" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>426</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>328</v>
+        <v>190</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>321</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>619</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>579</v>
+      </c>
       <c r="I16" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="45"/>
+        <v>521</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
-      <c r="B17" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>442</v>
+      <c r="B17" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>429</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="K17" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="45"/>
+        <v>522</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="M17" s="62" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>565</v>
+        <v>549</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>550</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="38"/>
+      <c r="H18" s="37" t="s">
+        <v>575</v>
+      </c>
       <c r="I18" s="3" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+        <v>88</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>579</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M18"/>
@@ -7556,6 +7739,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">게시판!$A$1:$M$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">관리자!$A$1:$L$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">제품!$A$1:$K$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="623">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저의 직원/알바생 정보를 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "에러 발생" : "존재하지 않는 직원 정보입니다"
 }</t>
@@ -531,19 +527,7 @@
     <t>명세서 양식 조회</t>
   </si>
   <si>
-    <t>명세서 양식 및 항목 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>명세서 양식 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명세서 양식 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 급여명세서 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,12 +541,6 @@
 "기본급을 기입해주십시오"
 }
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"존재하지 않는 급여명세서 ID입니다"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -777,14 +755,6 @@
 {
 "에러 발생" : "이름을 입력해주세요"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"00직원 정보가 정상적으로 삭제되었습니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"급여명세서id 00이(가) 정상적으로 삭제되었습니다"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1185,34 +1155,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[
-{
+    <t>{
 "id" : 1,
 "username" : "sangsu1234",
 "productName" : "3개월 구독권",
 "productId" : "S1"
-}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id" : 1,
-"username" : "sangsu1234",
-"productName" : "3개월 구독권",
-"productId" : "S1"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-{
-"id" : 1,
-"username" : "sangsu1234",
-"productName" : "3개월 구독권",
-"productId" : "S1"
-}
-]</t>
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1413,28 +1361,6 @@
 "payrollTemplate": "1"
 }
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"startPayrollPeriod":"2025-01-13",
-"lastPayrollPeriod":"2025-02-12",
-"paymentDate":"2025-02-12",
-"salary":2500000,
-"bonus":100000,
-"mealAllowance":100000,
-"transportAllowance":0,
-"otherAllowance":0,
-"deductionName":1,
-"freeLancer": "not",
-{
-"name":"김철수",
-"department":  ,
-"position":"직원",
-"hireDate":"2024-01-01",
-"phoneNumber":"010-1234-5678"
-}
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1623,10 +1549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/user/use/free-payrolltemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/api/user/calender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1923,10 +1845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>purchaseHistory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>userProduct</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1936,41 +1854,6 @@
   </si>
   <si>
     <t>payrolltemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-{
-"id" : 1,
-product : 
-{
-"productId" : "S1",
-"productName" : "3개월 구독권",
-"startdate" : "2024-01-01",
-"expiredate" : "2025-01-01"
-},
-"username" : "sangsu1234",
-"price" : 15000,
-"purchaseDate" : "2025-01-13"
-}
-{
-"id" : 1,
-product : 
-{
-"productId" : "C1",
-"productName" : "급여명세서 강의",
-"addDate" : "2024-01-01",
-"description" : "rmqduadudpatjap tja j"
-},
-"username" : "sangsu1234",
-"price" : 15000,
-"purchaseDate" : "2025-01-13"
-}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2051,10 +1934,6 @@
   </si>
   <si>
     <t xml:space="preserve">직원/알바생 추가 및 수정 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2315,10 +2194,6 @@
   </si>
   <si>
     <t>deleteleDeductionAndTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deletePayrollTemplate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3085,28 +2960,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-"id" : 1,
-"startPayrollPeriod":"2025-01-13",
-"lastPayrollPeriod":"2025-02-12",
-"paymentDate":"2025-02-12",
-"salary":2500000,
-"bonus":100000,
-"mealAllowance":100000,
-"transportAllowance":0,
-"otherAllowance":0,
-"deductionName":1,
-"freeLancer": "not freelancer"
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getPayrollTemplateById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3131,10 +2985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/payrolltemplate/delete?employeeId=00&amp;payrolltemplateId=00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅇ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3156,14 +3006,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿼리 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/payrolltemplate/id/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3176,15 +3018,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500 에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/employee/name/{name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/employee?id=00&amp;name=00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3208,21 +3042,6 @@
     <t>{
 "id": 3,
 "title" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userName": "ssy1234",
-"companyName": "행복한 상사",
-"name" : "유서영",
-"password": "1234",
-"gender" : "FEMALE",
-"email" : "ssy@gmail.com",
-"phoneNumber" : "010-4141-8585", 
-"businessNumber" : "111-22-55555", 
-"businessType" : "도소매업",
-"existBusinessOperator" : true
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3364,6 +3183,217 @@
 "otherAllowance":0,
 "freeLancer":"not freelancer"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"정상적으로 삭제되었습니다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 명세서 양식 및 항목 조회
+관리자가 전체 양식 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+{
+"id" : 1,
+"startPayrollPeriod":"2025-01-13",
+"lastPayrollPeriod":"2025-02-12",
+"paymentDate":"2025-02-12",
+"salary":2500000,
+"bonus":100000,
+"mealAllowance":100000,
+"transportAllowance":0,
+"otherAllowance":0,
+"deductionName":1,
+"freeLancer": "not freelancer"
+}
+]
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 직원/알바생 정보를 삭제 및 해당 직원의 
+급여명세서 양식 isActive false로 바꾸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/employee/delete/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/use/free-payrolltemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "payrollTemplateDTO" : {
+"id" : 2,
+"startPayrollPeriod":"2025-01-13",
+"lastPayrollPeriod":"2025-02-12",
+"paymentDate":"2025-02-12",
+"salary":3000000,
+"bonus":100000,
+"mealAllowance":100000,
+"transportAllowance":0,
+"otherAllowance":0,
+"freeLancerName":"not freelancer"
+},
+    "employeeDTO" : {
+"id" : 2,
+"name":"김수수",
+"department": "없음",
+"position":"직원",
+"hireDate":"2024-01-01",
+"phoneNumber":"010-1134-4624"
+} 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "payrollTemplateDTO" : {
+"id" : 2,
+"startPayrollPeriod":"2025-01-13",
+"lastPayrollPeriod":"2025-02-12",
+"paymentDate":"2025-02-12",
+"salary":3000000,
+"bonus":100000,
+"mealAllowance":100000,
+"transportAllowance":0,
+"otherAllowance":0,
+"freeLancerName":"not freelancer"
+},
+    "employeeDTO" : {
+"id" : 2,
+"name":"김수수",
+"department": "없음",
+"position":"직원",
+"hireDate":"2024-01-01",
+"phoneNumber":"010-1134-4624"
+} 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName": "ssy1234",
+"companyName": "행복한 상사",
+"realName" : "유서영",
+"password": "1234",
+"gender" : "FEMALE",
+"email" : "ssy@gmail.com",
+"phoneNumber" : "010-4141-8585", 
+"businessNumber" : "111-22-55555", 
+"businessType" : "도소매업",
+"existBusinessOperator" : true
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPurchaseHistoryByProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품ID를 통한 구매내역 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"해당 제품ID로 조회되는 구매내역이 없습니다"
+"해당 제품ID로 존재하는 내역이 없습니다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserProductByProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품Id를 통한 유저제품 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/user-product/product-id/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/purchase-history/product-id/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+{
+"id" : 1,
+"username" : "sangsu1234",
+"productName" : "3개월 구독권",
+"productId" : "S1"
+}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "product": {
+        "id": "S1",
+        "price": 30000.0,
+        "category": "정기 구독권"
+    },
+    "username": "sangsu1234",
+    "purchaseDate": "2025-01-13"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1,
+        "username": "sangsu1234",
+        "product": {
+            "type": "payrollsubscription",
+            "id": "S1",
+            "price": 30000.0,
+            "category": {
+                "name": "정기 구독권"
+            },
+            "title": "3개월 구독권",
+            "startDate": "2025-01-13",
+            "expireDate": "2025-04-12"
+        }
+    }
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3412,7 +3442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3428,12 +3458,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3654,9 +3678,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3667,6 +3688,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3685,6 +3709,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3726,23 +3765,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4024,18 +4048,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
     <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
@@ -4052,10 +4075,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4076,174 +4099,174 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>219</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>210</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="198" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
       <c r="B3" s="18" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
       <c r="B4" s="18" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="231" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
       <c r="B5" s="18" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>373</v>
+        <v>325</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>358</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
@@ -4251,23 +4274,23 @@
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>522</v>
+      <c r="J6" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="22" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -4279,29 +4302,29 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="J7" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="57"/>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
@@ -4319,510 +4342,600 @@
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>525</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="J8" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="57"/>
       <c r="B9" s="22" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>528</v>
+      <c r="J9" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="22" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="L10" s="37"/>
+      <c r="J10" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="22" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="G11" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="57"/>
+      <c r="B12" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="L12" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="H11" s="60" t="s">
-        <v>563</v>
-      </c>
-      <c r="I11" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>556</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>556</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
+    </row>
+    <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="57"/>
       <c r="B13" s="26" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="29" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="363" x14ac:dyDescent="0.3">
+      <c r="A14" s="57"/>
       <c r="B14" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="G14" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+        <v>608</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>605</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>606</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="57"/>
       <c r="B15" s="26" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="26" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="57"/>
       <c r="B16" s="22" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>564</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
+      <c r="J16" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57"/>
       <c r="B17" s="22" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D17" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="63" t="s">
-        <v>564</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="1:12" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="16" t="s">
-        <v>205</v>
+      <c r="G17" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48" t="s">
+        <v>198</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="J18" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62"/>
+      <c r="B19" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62"/>
+      <c r="B20" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>614</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="63"/>
+      <c r="B21" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>530</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="J23" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>618</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="63"/>
+      <c r="B25" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-    </row>
-    <row r="21" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="F25" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="G25" s="64"/>
+      <c r="H25" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>414</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N23">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N25"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A6:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4835,7 +4948,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E4" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4859,10 +4972,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4883,120 +4996,120 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>214</v>
+      <c r="A2" s="51" t="s">
+        <v>205</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="42" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="18"/>
       <c r="C3" s="42" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="18"/>
       <c r="C4" s="42" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="K4" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="5" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="23"/>
-      <c r="C5" s="38" t="s">
-        <v>456</v>
+      <c r="C5" s="37" t="s">
+        <v>440</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>24</v>
@@ -5005,7 +5118,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
@@ -5014,53 +5127,53 @@
       <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="37" t="s">
-        <v>532</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>532</v>
+      <c r="J5" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>515</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="38" t="s">
-        <v>457</v>
+      <c r="C6" s="37" t="s">
+        <v>441</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>539</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>540</v>
+        <v>163</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="38" t="s">
-        <v>458</v>
+      <c r="C7" s="37" t="s">
+        <v>442</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
@@ -5069,30 +5182,30 @@
         <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>539</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>521</v>
+        <v>416</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="38" t="s">
-        <v>459</v>
+      <c r="C8" s="37" t="s">
+        <v>443</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>25</v>
@@ -5101,66 +5214,66 @@
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>533</v>
+      <c r="J8" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>476</v>
-      </c>
       <c r="F9" s="32" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>539</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>539</v>
+        <v>163</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="60" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="23"/>
-      <c r="C10" s="38" t="s">
-        <v>461</v>
+      <c r="C10" s="37" t="s">
+        <v>445</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>35</v>
@@ -5169,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -5178,21 +5291,21 @@
       <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>521</v>
+      <c r="J10" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="38" t="s">
-        <v>463</v>
+      <c r="C11" s="37" t="s">
+        <v>447</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
@@ -5201,96 +5314,96 @@
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>539</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>521</v>
+      <c r="J11" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="34"/>
-      <c r="C12" s="38" t="s">
-        <v>464</v>
+      <c r="C12" s="37" t="s">
+        <v>448</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>536</v>
+        <v>163</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="38" t="s">
-        <v>465</v>
+      <c r="C13" s="37" t="s">
+        <v>449</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>536</v>
+        <v>417</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="38" t="s">
-        <v>467</v>
+      <c r="C14" s="37" t="s">
+        <v>451</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>37</v>
@@ -5299,130 +5412,130 @@
         <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>536</v>
+        <v>279</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="60" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="23"/>
-      <c r="C15" s="38" t="s">
-        <v>468</v>
+      <c r="C15" s="37" t="s">
+        <v>452</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>536</v>
+        <v>419</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="38" t="s">
-        <v>469</v>
+      <c r="C16" s="37" t="s">
+        <v>453</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>536</v>
+        <v>420</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="38" t="s">
-        <v>470</v>
+      <c r="C17" s="37" t="s">
+        <v>454</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>536</v>
+        <v>416</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="38" t="s">
-        <v>471</v>
+      <c r="C18" s="37" t="s">
+        <v>455</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>62</v>
@@ -5431,32 +5544,32 @@
         <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>536</v>
+        <v>138</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="38" t="s">
-        <v>437</v>
+      <c r="C19" s="37" t="s">
+        <v>421</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>64</v>
@@ -5465,271 +5578,271 @@
         <v>65</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>536</v>
+      <c r="J19" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
-        <v>240</v>
+      <c r="A20" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="26" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="38" t="s">
-        <v>438</v>
+      <c r="C22" s="37" t="s">
+        <v>422</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="16" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>536</v>
+      <c r="J22" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="165" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="38" t="s">
-        <v>393</v>
+      <c r="C23" s="37" t="s">
+        <v>378</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>536</v>
+      <c r="J23" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="38" t="s">
-        <v>394</v>
+      <c r="C24" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="16" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>527</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>536</v>
+      <c r="J24" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="26" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="26" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="26" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="28" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>88</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -5749,11 +5862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5777,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -5792,10 +5904,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -5804,24 +5916,24 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>440</v>
+        <v>346</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>424</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>44</v>
@@ -5830,72 +5942,72 @@
         <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+      <c r="A3" s="60"/>
       <c r="B3" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>442</v>
+        <v>346</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>426</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="60"/>
       <c r="B4" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>443</v>
+        <v>346</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>427</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>45</v>
@@ -5904,11 +6016,11 @@
         <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>51</v>
@@ -5917,20 +6029,20 @@
         <v>31</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="60"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="38" t="s">
-        <v>414</v>
+      <c r="C5" s="37" t="s">
+        <v>399</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>58</v>
@@ -5939,35 +6051,35 @@
         <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>415</v>
+        <v>346</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>400</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>46</v>
@@ -5976,39 +6088,39 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>496</v>
+        <v>347</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>480</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>53</v>
@@ -6017,148 +6129,148 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="60"/>
       <c r="B8" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>497</v>
+        <v>347</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>481</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
       <c r="B9" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>494</v>
+        <v>347</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>478</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>452</v>
+        <v>347</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>436</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="60"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="38" t="s">
-        <v>501</v>
+      <c r="C11" s="37" t="s">
+        <v>485</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>60</v>
@@ -6167,221 +6279,215 @@
         <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="181.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>108</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>103</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>416</v>
+        <v>349</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>401</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
       <c r="B13" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>504</v>
+        <v>349</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>488</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="165" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
       <c r="B14" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>485</v>
+        <v>349</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>469</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="38" t="s">
-        <v>417</v>
+      <c r="C15" s="37" t="s">
+        <v>402</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="38" t="s">
-        <v>418</v>
+      <c r="C16" s="37" t="s">
+        <v>403</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="31" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M16"/>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -6394,11 +6500,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6415,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -6436,21 +6541,21 @@
         <v>6</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="280.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>395</v>
+      <c r="B2" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>73</v>
@@ -6459,7 +6564,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
@@ -6468,82 +6573,82 @@
       <c r="H2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="297" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="I2" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="297" x14ac:dyDescent="0.3">
+      <c r="A3" s="62"/>
+      <c r="B3" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="38" t="s">
-        <v>397</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="I3" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>521</v>
+        <v>167</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="38" t="s">
-        <v>398</v>
+      <c r="A5" s="62"/>
+      <c r="B5" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>70</v>
@@ -6552,31 +6657,31 @@
         <v>78</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="38" t="s">
-        <v>399</v>
+      <c r="I5" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6" s="37" t="s">
+        <v>384</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>69</v>
@@ -6585,184 +6690,188 @@
         <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="38" t="s">
-        <v>400</v>
+        <v>140</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="37" t="s">
+        <v>385</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="38" t="s">
-        <v>401</v>
+      <c r="I7" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="55"/>
+      <c r="B8" s="37" t="s">
+        <v>386</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" ht="148.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="38" t="s">
-        <v>402</v>
+        <v>170</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="37" t="s">
+        <v>387</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="99" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="38" t="s">
-        <v>403</v>
+      <c r="I9" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="37" t="s">
+        <v>388</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="38" t="s">
-        <v>404</v>
+        <v>173</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A11" s="56"/>
+      <c r="B11" s="37" t="s">
+        <v>389</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="I11" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>405</v>
+      <c r="B12" s="37" t="s">
+        <v>390</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>82</v>
@@ -6771,60 +6880,60 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="38" t="s">
-        <v>406</v>
+      <c r="I12" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="37" t="s">
+        <v>391</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>521</v>
+        <v>173</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="38" t="s">
-        <v>407</v>
+      <c r="A14" s="55"/>
+      <c r="B14" s="37" t="s">
+        <v>392</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>83</v>
@@ -6833,29 +6942,31 @@
         <v>86</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="38" t="s">
-        <v>408</v>
+        <v>142</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
+      <c r="B15" s="37" t="s">
+        <v>393</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>84</v>
@@ -6864,159 +6975,155 @@
         <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" ht="132" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>409</v>
+        <v>143</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A16" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>394</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="38" t="s">
-        <v>410</v>
+      <c r="I16" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="55"/>
+      <c r="B17" s="37" t="s">
+        <v>395</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>543</v>
+        <v>194</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="38" t="s">
-        <v>411</v>
+      <c r="A18" s="55"/>
+      <c r="B18" s="37" t="s">
+        <v>396</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="38" t="s">
-        <v>412</v>
+      <c r="I18" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="37" t="s">
+        <v>397</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>543</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>543</v>
+        <v>129</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K19">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K19"/>
   <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -7032,16 +7139,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="69.25" bestFit="1" customWidth="1"/>
@@ -7059,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -7076,8 +7183,8 @@
       <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="61" t="s">
-        <v>439</v>
+      <c r="H1" s="46" t="s">
+        <v>423</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -7086,61 +7193,61 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
-      <c r="B2" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>552</v>
+      <c r="B2" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>536</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>599</v>
+        <v>537</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>578</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="54" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>91</v>
@@ -7149,593 +7256,556 @@
         <v>92</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>544</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>578</v>
+        <v>514</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="22" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>600</v>
+      <c r="M4" s="40" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="22" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>595</v>
+        <v>514</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="22" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="M6" s="35" t="s">
-        <v>595</v>
+        <v>524</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="40" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="8" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>150</v>
+        <v>597</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
         <v>96</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>586</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
-        <v>97</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="24" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>75</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>591</v>
+        <v>515</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="22"/>
       <c r="C10" s="24" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>570</v>
+        <v>515</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>573</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>592</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>580</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>579</v>
+        <v>514</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="22"/>
       <c r="C12" s="24" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>579</v>
+        <v>524</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="22"/>
       <c r="C13" s="24" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="297" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="330" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>300</v>
+        <v>598</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>289</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="8" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>596</v>
+        <v>414</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>584</v>
+      <c r="A15" s="57"/>
+      <c r="B15" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>567</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>597</v>
+        <v>184</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>576</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>580</v>
+        <v>512</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>564</v>
       </c>
       <c r="M15" s="45" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>426</v>
+      <c r="A16" s="57"/>
+      <c r="B16" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>321</v>
+        <v>183</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>310</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>585</v>
+        <v>505</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>568</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>429</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>531</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>103</v>
+        <v>532</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>590</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>151</v>
+        <v>533</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="M17" s="62" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="J18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="37" t="s">
-        <v>522</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>579</v>
+      <c r="K17" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M18"/>
+  <autoFilter ref="A1:M17"/>
   <mergeCells count="3">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">게시판!$A$1:$M$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">관리자!$A$1:$L$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">제품!$A$1:$K$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="626">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저의 직원/알바생의 정보를 추가 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직원/알바생 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,10 +521,6 @@
   </si>
   <si>
     <t>명세서 양식 조회</t>
-  </si>
-  <si>
-    <t>명세서 양식 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -989,10 +981,6 @@
 "freeLancer":not,
 "employeeId" : 2
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>급여명세서 양식 추가 및 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1541,10 +1529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/user/modify-pw-by-id-and-phonenumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET/api/user/download/formation-data/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1561,14 +1545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET /api/authority/id/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /api/authority/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET /api/guide/id/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1707,10 +1683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST api/payrolltemplate/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/api/board/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1730,10 +1702,6 @@
     <t>{
 "id": "sangsu1234"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST/api/user/user-business-number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2185,10 +2153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>savePayrollTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>saveDeductionAndTax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2318,10 +2282,6 @@
   </si>
   <si>
     <t>getAuthorityById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET /api/authoritys/name/{name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3156,33 +3116,6 @@
       </rPr>
       <t/>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id" : 3,
-"name":"홍길동",
-"department": "기획부" ,
-"position":"직원",
-"hireDate":"2019-03-01",
-"phoneNumber":"010-4567-8901",
-"payrollTemplate":"2"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id" : 3,
-"startPayrollPeriod":"2025-01-13",
-"lastPayrollPeriod":"2025-02-12",
-"paymentDate":"2025-02-12",
-"salary":3000000,
-"bonus":100000,
-"mealAllowance":100000,
-"transportAllowance":0,
-"otherAllowance":0,
-"freeLancer":"not freelancer"
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3264,6 +3197,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName": "ssy1234",
+"companyName": "행복한 상사",
+"realName" : "유서영",
+"password": "1234",
+"gender" : "FEMALE",
+"email" : "ssy@gmail.com",
+"phoneNumber" : "010-4141-8585", 
+"businessNumber" : "111-22-55555", 
+"businessType" : "도소매업",
+"existBusinessOperator" : true
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPurchaseHistoryByProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품ID를 통한 구매내역 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"해당 제품ID로 조회되는 구매내역이 없습니다"
+"해당 제품ID로 존재하는 내역이 없습니다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserProductByProductId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품Id를 통한 유저제품 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/user-product/product-id/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/api/purchase-history/product-id/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+{
+"id" : 1,
+"username" : "sangsu1234",
+"productName" : "3개월 구독권",
+"productId" : "S1"
+}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "product": {
+        "id": "S1",
+        "price": 30000.0,
+        "category": "정기 구독권"
+    },
+    "username": "sangsu1234",
+    "purchaseDate": "2025-01-13"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 1,
+        "username": "sangsu1234",
+        "product": {
+            "type": "payrollsubscription",
+            "id": "S1",
+            "price": 30000.0,
+            "category": {
+                "name": "정기 구독권"
+            },
+            "title": "3개월 구독권",
+            "startDate": "2025-01-13",
+            "expireDate": "2025-04-12"
+        }
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /api/authority/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /api/authority/id/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET /api/authority/name/{name}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/modify-pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "payrollTemplateDTO" : {
 "id" : 2,
@@ -3289,111 +3346,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"userName": "ssy1234",
-"companyName": "행복한 상사",
-"realName" : "유서영",
-"password": "1234",
-"gender" : "FEMALE",
-"email" : "ssy@gmail.com",
-"phoneNumber" : "010-4141-8585", 
-"businessNumber" : "111-22-55555", 
-"businessType" : "도소매업",
+    <t>유저의 직원/알바생의 정보를 추가 및 수정 겸
+급여명세서 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여명세서 양식 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명세서 양식 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatePayrollTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT api/payrolltemplate/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/user/user-business-number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"userName " : "admin",
+"businessNumber" : "111-11-11111",
+"businessType" : "어업",
 "existBusinessOperator" : true
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getPurchaseHistoryByProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품ID를 통한 구매내역 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"해당 제품ID로 조회되는 구매내역이 없습니다"
-"해당 제품ID로 존재하는 내역이 없습니다"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getUserProductByProductId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품Id를 통한 유저제품 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET/api/user-product/product-id/{productId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET/api/purchase-history/product-id/{productId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-{
-"id" : 1,
-"username" : "sangsu1234",
-"productName" : "3개월 구독권",
-"productId" : "S1"
-}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "id": 1,
-    "product": {
-        "id": "S1",
-        "price": 30000.0,
-        "category": "정기 구독권"
-    },
-    "username": "sangsu1234",
-    "purchaseDate": "2025-01-13"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-    {
-        "id": 1,
-        "username": "sangsu1234",
-        "product": {
-            "type": "payrollsubscription",
-            "id": "S1",
-            "price": 30000.0,
-            "category": {
-                "name": "정기 구독권"
-            },
-            "title": "3개월 구독권",
-            "startDate": "2025-01-13",
-            "expireDate": "2025-04-12"
-        }
-    }
-]</t>
+    <t>{
+    "payrollTemplateDTO" : {
+"id" : 2,
+"startPayrollPeriod":"2025-01-13",
+"lastPayrollPeriod":"2025-02-12",
+"paymentDate":"2025-02-12",
+"salary":3000000,
+"bonus":100000,
+"mealAllowance":100000,
+"transportAllowance":0,
+"otherAllowance":0,
+"freeLancerName":"not freelancer"
+},
+    "employeeDTO" : {
+"id" : 2,
+"name":"김수수",
+"department": "없음",
+"position":"직원",
+"hireDate":"2024-01-01",
+"phoneNumber":"010-1134-4624"
+} 
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "id": 19,
+  "startPayrollPeriod": "2025-01-13",
+  "lastPayrollPeriod": "2025-02-12",
+  "paymentDate": "2025-02-12",
+  "salary": 3000000,
+  "bonus": 200000,
+  "mealAllowance": 100000,
+  "transportAllowance": 0,
+  "otherAllowance": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"id": 3,
+"title" : "직원 정보 수정된 부분에 대한 업데이트가 안됩니다.
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"title" : "나의 직업 정보 수정 이용 가이드",
+"text" : "마이 페이지에 있는 직원 정보 수정 탭을 눌러 수정하기 버튼을 클릭하여 수정하십시오"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3572,7 +3608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3726,6 +3762,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3735,13 +3780,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3756,17 +3801,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4048,10 +4090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4075,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4099,174 +4141,174 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>213</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="18" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="18" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="18" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="60" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
@@ -4275,22 +4317,22 @@
         <v>12</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="22" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -4302,29 +4344,29 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
@@ -4343,600 +4385,564 @@
         <v>19</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="22" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="22" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>269</v>
+        <v>613</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="22" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="K11" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60"/>
+      <c r="B12" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>620</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="K12" s="40" t="s">
         <v>505</v>
       </c>
-      <c r="L11" s="40" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>505</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>515</v>
-      </c>
       <c r="L12" s="40" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="26" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="363" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60"/>
+      <c r="B14" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
+      <c r="B15" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60"/>
+      <c r="B16" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>604</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>605</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J14" s="40" t="s">
-        <v>607</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>607</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="22" t="s">
+      <c r="J16" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>548</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="C17" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="22" t="s">
+      <c r="J17" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="L17" s="50" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>548</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="L17" s="40" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>333</v>
-      </c>
       <c r="C18" s="50" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G18" s="50"/>
       <c r="H18" s="48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L18" s="50" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="50" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>368</v>
+        <v>599</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>195</v>
+        <v>600</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>264</v>
+        <v>605</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="48" t="s">
+        <v>607</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="B20" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>505</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>514</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>613</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>614</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>619</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="48" t="s">
-        <v>621</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>615</v>
-      </c>
       <c r="J20" s="50" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K20" s="50" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L20" s="50" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="57" t="s">
+        <v>113</v>
+      </c>
       <c r="B21" s="50" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>114</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G21" s="50"/>
-      <c r="H21" s="9" t="s">
-        <v>622</v>
+      <c r="H21" s="48" t="s">
+        <v>606</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="K21" s="50" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="L21" s="50" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
-        <v>115</v>
-      </c>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58"/>
       <c r="B22" s="50" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="48" t="s">
-        <v>620</v>
+        <v>201</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="K22" s="50" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
+      <c r="A23" s="58"/>
       <c r="B23" s="50" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>371</v>
+        <v>602</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>201</v>
+        <v>603</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>267</v>
+        <v>604</v>
       </c>
       <c r="G23" s="50"/>
-      <c r="H23" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>505</v>
-      </c>
-      <c r="L23" s="50" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+    </row>
+    <row r="24" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
       <c r="B24" s="50" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>616</v>
+        <v>364</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>617</v>
+        <v>200</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>618</v>
-      </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-    </row>
-    <row r="25" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="K25" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="L25" s="50" t="s">
-        <v>414</v>
+        <v>327</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25"/>
+  <autoFilter ref="A1:N24"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A6:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4945,10 +4951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="A2:E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4967,15 +4973,15 @@
     <col min="12" max="12" width="7.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4996,120 +5002,126 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>205</v>
+        <v>492</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="42" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>275</v>
+        <v>610</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>515</v>
-      </c>
       <c r="L2" s="18" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+        <v>510</v>
+      </c>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
       <c r="B3" s="18"/>
       <c r="C3" s="42" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>274</v>
+        <v>611</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>515</v>
-      </c>
       <c r="L3" s="18" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+        <v>511</v>
+      </c>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
       <c r="B4" s="18"/>
       <c r="C4" s="42" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>438</v>
+        <v>612</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>24</v>
@@ -5118,7 +5130,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
@@ -5128,52 +5140,54 @@
         <v>27</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+        <v>505</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A6" s="62"/>
       <c r="B6" s="23"/>
       <c r="C6" s="37" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+        <v>495</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
       <c r="B7" s="23"/>
       <c r="C7" s="37" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
@@ -5182,30 +5196,31 @@
         <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+        <v>513</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
       <c r="B8" s="23"/>
       <c r="C8" s="37" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>25</v>
@@ -5214,66 +5229,68 @@
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="37" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="37" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>35</v>
@@ -5282,7 +5299,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -5292,20 +5309,21 @@
         <v>27</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>505</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+        <v>495</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="132" x14ac:dyDescent="0.3">
+      <c r="A11" s="63"/>
       <c r="B11" s="23"/>
       <c r="C11" s="37" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
@@ -5314,96 +5332,99 @@
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+        <v>513</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="63"/>
       <c r="B12" s="34"/>
       <c r="C12" s="37" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+        <v>501</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
       <c r="B13" s="23"/>
       <c r="C13" s="37" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+        <v>501</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A14" s="63"/>
       <c r="B14" s="23"/>
       <c r="C14" s="37" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>37</v>
@@ -5412,130 +5433,134 @@
         <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="L14" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="37" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+        <v>501</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A16" s="63"/>
       <c r="B16" s="23"/>
       <c r="C16" s="37" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
+        <v>501</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A17" s="63"/>
       <c r="B17" s="23"/>
       <c r="C17" s="37" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="F17" s="11" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+        <v>501</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="63"/>
       <c r="B18" s="23"/>
       <c r="C18" s="37" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>62</v>
@@ -5544,32 +5569,33 @@
         <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+        <v>501</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="63"/>
       <c r="B19" s="23"/>
       <c r="C19" s="37" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>64</v>
@@ -5578,272 +5604,281 @@
         <v>65</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
-        <v>231</v>
+        <v>501</v>
+      </c>
+      <c r="L19" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
+        <v>228</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
+        <v>515</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="60"/>
       <c r="B21" s="26" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
+        <v>515</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="60"/>
       <c r="B22" s="22"/>
       <c r="C22" s="37" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="165" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
+        <v>501</v>
+      </c>
+      <c r="L22" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.3">
+      <c r="A23" s="60"/>
       <c r="B23" s="22"/>
       <c r="C23" s="37" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
+        <v>501</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="198" x14ac:dyDescent="0.3">
+      <c r="A24" s="60"/>
       <c r="B24" s="22"/>
       <c r="C24" s="37" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
+        <v>501</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
       <c r="B25" s="26" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="26" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
+        <v>516</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="60"/>
       <c r="B26" s="26" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="26" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
+        <v>516</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A27" s="60"/>
       <c r="B27" s="26" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="28" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>88</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>526</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M27" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L27"/>
@@ -5864,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="A2:F6"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5889,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -5904,10 +5939,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -5916,24 +5951,24 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="63" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>44</v>
@@ -5942,72 +5977,72 @@
         <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="23" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
+      <c r="A4" s="63"/>
       <c r="B4" s="23" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>45</v>
@@ -6016,11 +6051,11 @@
         <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>51</v>
@@ -6029,20 +6064,20 @@
         <v>31</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>58</v>
@@ -6051,35 +6086,35 @@
         <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="23" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>46</v>
@@ -6088,39 +6123,39 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>582</v>
+        <v>624</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>53</v>
@@ -6129,148 +6164,148 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="34" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="23"/>
       <c r="C11" s="37" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>60</v>
@@ -6279,211 +6314,211 @@
         <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
-        <v>103</v>
+      <c r="A12" s="64" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="22"/>
       <c r="C15" s="37" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="22"/>
       <c r="C16" s="37" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="31" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6520,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -6541,21 +6576,21 @@
         <v>6</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="57" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>73</v>
@@ -6564,7 +6599,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
@@ -6574,19 +6609,19 @@
         <v>75</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="297" x14ac:dyDescent="0.3">
-      <c r="A3" s="62"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="37" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>72</v>
@@ -6595,60 +6630,60 @@
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="37" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="37" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>70</v>
@@ -6657,31 +6692,31 @@
         <v>78</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="37" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>69</v>
@@ -6690,188 +6725,188 @@
         <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="37" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="37" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="37" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="37" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="37" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="64" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>82</v>
@@ -6880,60 +6915,60 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="37" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="37" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>83</v>
@@ -6942,31 +6977,31 @@
         <v>86</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="37" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>84</v>
@@ -6975,151 +7010,151 @@
         <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
-        <v>107</v>
+      <c r="A16" s="64" t="s">
+        <v>105</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="37" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="37" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="37" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -7139,10 +7174,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7166,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -7184,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -7193,61 +7228,61 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="36" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="64" t="s">
         <v>90</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>91</v>
@@ -7256,556 +7291,591 @@
         <v>92</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="22" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="22" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="22" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="363" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
       <c r="B7" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>593</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="M7" s="40" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="40" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>409</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>294</v>
+        <v>588</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>589</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
         <v>553</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>562</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+        <v>585</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>95</v>
+      </c>
       <c r="B10" s="22"/>
       <c r="C10" s="24" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>295</v>
+        <v>541</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>57</v>
+        <v>179</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="24"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="24" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>573</v>
+        <v>178</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>558</v>
+        <v>57</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M11" s="36" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>575</v>
-      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="J12" s="9" t="s">
-        <v>147</v>
+        <v>548</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
       <c r="B13" s="22"/>
       <c r="C13" s="24" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>562</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="J14" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>184</v>
+        <v>586</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>576</v>
+        <v>283</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>185</v>
+        <v>587</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="M15" s="45" t="s">
-        <v>563</v>
+        <v>518</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="36" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>411</v>
+        <v>557</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>595</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="8" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>182</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>530</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>531</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="264" x14ac:dyDescent="0.3">
+      <c r="A17" s="60"/>
+      <c r="B17" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>618</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>533</v>
+        <v>616</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>535</v>
+        <v>619</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="J17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>568</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>563</v>
+      <c r="K18" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M17"/>
+  <autoFilter ref="A1:M18"/>
   <mergeCells count="3">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">게시판!$A$1:$M$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">관리자!$A$1:$L$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">유저!$A$1:$N$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">제품!$A$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$18</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="633">
   <si>
     <t>그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,10 +617,6 @@
   </si>
   <si>
     <t>구매 내역 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저제품 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1671,10 +1667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST/api/product/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST/api/category/save</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3068,35 +3060,6 @@
 "userName" : "sangmin1234",
 "productId" : "S1" 
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-"type" : "course",
-"id" : "C2",
-"price" : 15000,
-"category" : "강의",
-"title": "급여 계산 방법",
-"addDate" : "2025-01-13",
-"description" : "직원 및 알바생 급여 계산 방법"
-}
-{
-"type" : "payrollsubcription",
-"id" : "S2",
-"price" : 15000,
-"category" : "구독권",
-"title": "1개월 구독권",
-"startDate" : "2025-01-13",
-"expireDate" : "2025-02-12 "
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"id" : 2,
-"userName":"sangsu1234",
-"productId":"C1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3430,6 +3393,96 @@
 "title" : "나의 직업 정보 수정 이용 가이드",
 "text" : "마이 페이지에 있는 직원 정보 수정 탭을 눌러 수정하기 버튼을 클릭하여 수정하십시오"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+"cartId" : 2,
+"userName":"sangsu1234",
+"productId":"C1"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "id": 2,
+    "product": {
+        "type": "payrollsubscription",
+        "id": "S1",
+        "price": 30000.0,
+        "category": {
+            "name": "정기 구독권"
+        },
+        "title": "3개월 구독권",
+        "startDate": "2025-01-13",
+        "expireDate": "2025-04-12"
+    },
+    "username": "sangsu1234",
+    "purchaseDate": "2025-01-21"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이미 구매한 제품입니다"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "cartId": 2,
+        "user":
+ "sangsu1234",
+        "productId": "C1"
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에서 결제 후 
+구매내역 및 유저제품에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 ID를 통한 
+구매 내역 및 유저제품에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>savePurcharseHistorysavePurchaseHistoryAndUserProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/product/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"type" : "course",
+"id" : "C2",
+"price" : 15000,
+"category" : "강의",
+"title": "급여 계산 방법",
+"addDate" : "2025-01-13",
+"description" : "직원 및 알바생 급여 계산 방법"
+}
+{
+"type" : "payrollsubscription",
+"id" : "S2",
+"price" : 15000,
+"category" : "정기 구독권",
+"title": "1개월 구독권",
+"startDate" : "2025-01-13",
+"expireDate" : "2025-02-12 "
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST/api/purchase-history/save/purchase-history-and-user-product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독권 만료일 지난거 제외한 유저제품 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3608,7 +3661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3809,6 +3862,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4090,17 +4146,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
@@ -4117,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -4141,151 +4197,151 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>208</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A3" s="55"/>
       <c r="B3" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
       <c r="B4" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>211</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
       <c r="B5" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
@@ -4293,10 +4349,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -4305,10 +4361,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
@@ -4317,22 +4373,22 @@
         <v>12</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
       <c r="B7" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -4344,29 +4400,29 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
       <c r="B8" s="22"/>
       <c r="C8" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
@@ -4385,289 +4441,289 @@
         <v>19</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
       <c r="B9" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="L9" s="36" t="s">
         <v>500</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
       <c r="B11" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="F11" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J11" s="40" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
       <c r="B12" s="22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J12" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
       <c r="B13" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="I13" s="29" t="s">
-        <v>240</v>
-      </c>
       <c r="J13" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60"/>
       <c r="B14" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L14" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
       <c r="B15" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
       <c r="B16" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H16" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>246</v>
-      </c>
       <c r="J16" s="40" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4675,10 +4731,10 @@
         <v>111</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>112</v>
@@ -4687,261 +4743,298 @@
         <v>120</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="50"/>
       <c r="H17" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J17" s="50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K17" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L17" s="50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="50"/>
       <c r="H18" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K18" s="50" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L18" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="J19" s="50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K19" s="50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L19" s="50" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" s="50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>625</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>623</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="K20" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="L20" s="50" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="E21" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="48" t="s">
-        <v>606</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="L21" s="50" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
       <c r="B22" s="50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>114</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>198</v>
+        <v>632</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G22" s="50"/>
       <c r="H22" s="48" t="s">
-        <v>201</v>
+        <v>602</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K22" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>602</v>
+        <v>361</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>114</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>603</v>
+        <v>197</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>604</v>
+        <v>263</v>
       </c>
       <c r="G23" s="50"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-    </row>
-    <row r="24" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="H23" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>506</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="50" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>364</v>
+        <v>598</v>
       </c>
       <c r="D24" s="50" t="s">
         <v>114</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>200</v>
+        <v>599</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="K24" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="L24" s="50" t="s">
-        <v>405</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="67"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N24"/>
+  <autoFilter ref="A1:N25"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A6:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4953,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4978,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -5002,50 +5095,50 @@
         <v>6</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M2" s="18"/>
     </row>
@@ -5053,32 +5146,32 @@
       <c r="A3" s="55"/>
       <c r="B3" s="18"/>
       <c r="C3" s="42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>204</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M3" s="18"/>
     </row>
@@ -5086,32 +5179,32 @@
       <c r="A4" s="56"/>
       <c r="B4" s="18"/>
       <c r="C4" s="42" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M4" s="18"/>
     </row>
@@ -5121,7 +5214,7 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>24</v>
@@ -5130,7 +5223,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
@@ -5140,13 +5233,13 @@
         <v>27</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L5" s="51" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -5154,32 +5247,32 @@
       <c r="A6" s="62"/>
       <c r="B6" s="23"/>
       <c r="C6" s="37" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L6" s="51" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M6" s="2"/>
     </row>
@@ -5187,7 +5280,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="23"/>
       <c r="C7" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>28</v>
@@ -5196,23 +5289,23 @@
         <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L7" s="51" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M7" s="2"/>
     </row>
@@ -5220,7 +5313,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="23"/>
       <c r="C8" s="37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>25</v>
@@ -5229,25 +5322,25 @@
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L8" s="51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M8" s="2"/>
     </row>
@@ -5255,32 +5348,32 @@
       <c r="A9" s="33"/>
       <c r="B9" s="34"/>
       <c r="C9" s="37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>449</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>451</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L9" s="51" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M9" s="2"/>
     </row>
@@ -5290,7 +5383,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>35</v>
@@ -5299,7 +5392,7 @@
         <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
@@ -5309,13 +5402,13 @@
         <v>27</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M10" s="2"/>
     </row>
@@ -5323,7 +5416,7 @@
       <c r="A11" s="63"/>
       <c r="B11" s="23"/>
       <c r="C11" s="37" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
@@ -5332,23 +5425,23 @@
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L11" s="51" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M11" s="2"/>
     </row>
@@ -5356,32 +5449,32 @@
       <c r="A12" s="63"/>
       <c r="B12" s="34"/>
       <c r="C12" s="37" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>453</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>455</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M12" s="2"/>
     </row>
@@ -5389,34 +5482,34 @@
       <c r="A13" s="63"/>
       <c r="B13" s="23"/>
       <c r="C13" s="37" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M13" s="2"/>
     </row>
@@ -5424,7 +5517,7 @@
       <c r="A14" s="63"/>
       <c r="B14" s="23"/>
       <c r="C14" s="37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>37</v>
@@ -5433,25 +5526,25 @@
         <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L14" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M14" s="2"/>
     </row>
@@ -5461,32 +5554,32 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M15" s="2"/>
     </row>
@@ -5494,32 +5587,32 @@
       <c r="A16" s="63"/>
       <c r="B16" s="23"/>
       <c r="C16" s="37" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L16" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M16" s="2"/>
     </row>
@@ -5527,32 +5620,32 @@
       <c r="A17" s="63"/>
       <c r="B17" s="23"/>
       <c r="C17" s="37" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L17" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M17" s="2"/>
     </row>
@@ -5560,7 +5653,7 @@
       <c r="A18" s="63"/>
       <c r="B18" s="23"/>
       <c r="C18" s="37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>62</v>
@@ -5569,25 +5662,25 @@
         <v>63</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M18" s="2"/>
     </row>
@@ -5595,7 +5688,7 @@
       <c r="A19" s="63"/>
       <c r="B19" s="23"/>
       <c r="C19" s="37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>64</v>
@@ -5604,89 +5697,89 @@
         <v>65</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L19" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="60"/>
       <c r="B21" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L21" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M21" s="2"/>
     </row>
@@ -5694,32 +5787,32 @@
       <c r="A22" s="60"/>
       <c r="B22" s="22"/>
       <c r="C22" s="37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L22" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M22" s="2"/>
     </row>
@@ -5727,32 +5820,32 @@
       <c r="A23" s="60"/>
       <c r="B23" s="22"/>
       <c r="C23" s="37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L23" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M23" s="2"/>
     </row>
@@ -5760,123 +5853,123 @@
       <c r="A24" s="60"/>
       <c r="B24" s="22"/>
       <c r="C24" s="37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>88</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L24" s="51" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="60"/>
       <c r="B25" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L25" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
       <c r="B26" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L26" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
       <c r="B27" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>88</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M27" s="2"/>
     </row>
@@ -5924,10 +6017,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -5939,10 +6032,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -5951,13 +6044,13 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
@@ -5965,10 +6058,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>44</v>
@@ -5977,72 +6070,72 @@
         <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="132" x14ac:dyDescent="0.3">
       <c r="A3" s="63"/>
       <c r="B3" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
       <c r="B4" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>45</v>
@@ -6051,11 +6144,11 @@
         <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>51</v>
@@ -6064,20 +6157,20 @@
         <v>31</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="23"/>
       <c r="C5" s="37" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>58</v>
@@ -6086,35 +6179,35 @@
         <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="63"/>
       <c r="B6" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>46</v>
@@ -6123,28 +6216,28 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="132" x14ac:dyDescent="0.3">
@@ -6152,10 +6245,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>53</v>
@@ -6164,148 +6257,148 @@
         <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" s="63"/>
       <c r="B8" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A9" s="63"/>
       <c r="B9" s="34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" s="63"/>
       <c r="B10" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="63"/>
       <c r="B11" s="23"/>
       <c r="C11" s="37" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>60</v>
@@ -6314,26 +6407,26 @@
         <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
@@ -6341,10 +6434,10 @@
         <v>101</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>102</v>
@@ -6353,107 +6446,107 @@
         <v>116</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="22"/>
       <c r="C15" s="37" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>103</v>
@@ -6462,35 +6555,35 @@
         <v>117</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="66"/>
       <c r="B16" s="22"/>
       <c r="C16" s="37" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>104</v>
@@ -6499,26 +6592,26 @@
         <v>118</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="K16" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6537,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="A10:D11"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6555,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
@@ -6576,13 +6669,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="280.5" x14ac:dyDescent="0.3">
@@ -6590,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>73</v>
@@ -6599,7 +6692,7 @@
         <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
@@ -6609,19 +6702,19 @@
         <v>75</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K2" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="297" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
       <c r="B3" s="37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>72</v>
@@ -6630,60 +6723,60 @@
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K3" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
       <c r="B4" s="37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="I4" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
       <c r="B5" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>70</v>
@@ -6692,31 +6785,31 @@
         <v>78</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>629</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>69</v>
@@ -6725,180 +6818,180 @@
         <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="I6" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="37" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="37" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>171</v>
-      </c>
       <c r="I10" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
@@ -6906,7 +6999,7 @@
         <v>81</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>82</v>
@@ -6915,60 +7008,60 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="37" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="37" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>83</v>
@@ -6977,31 +7070,31 @@
         <v>86</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="66"/>
       <c r="B15" s="37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>84</v>
@@ -7010,23 +7103,23 @@
         <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="132" x14ac:dyDescent="0.3">
@@ -7034,7 +7127,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>106</v>
@@ -7043,60 +7136,60 @@
         <v>119</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="37" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="37" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>107</v>
@@ -7105,31 +7198,31 @@
         <v>109</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="66"/>
       <c r="B19" s="37" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>108</v>
@@ -7138,23 +7231,23 @@
         <v>110</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="I19" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -7201,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -7219,7 +7312,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>5</v>
@@ -7228,50 +7321,50 @@
         <v>6</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="36" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
@@ -7279,10 +7372,10 @@
         <v>90</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>91</v>
@@ -7291,137 +7384,137 @@
         <v>92</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="363" x14ac:dyDescent="0.3">
@@ -7430,109 +7523,109 @@
         <v>115</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="52"/>
       <c r="C8" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>618</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>592</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>622</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>593</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="J8" s="40" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" s="40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>94</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.3">
@@ -7541,179 +7634,179 @@
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>75</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
       <c r="B11" s="22"/>
       <c r="C11" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="22"/>
       <c r="C13" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="J13" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>551</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>553</v>
-      </c>
       <c r="M13" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" s="22"/>
       <c r="C14" s="24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="J14" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.3">
@@ -7721,153 +7814,153 @@
         <v>97</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
       <c r="B16" s="36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="264" x14ac:dyDescent="0.3">
       <c r="A17" s="60"/>
       <c r="B17" s="36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F17" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>623</v>
-      </c>
       <c r="H17" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="D18" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="E18" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="37" t="s">
         <v>522</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>524</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="36" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>88</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M18" s="36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\My Project\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75141D23-D5D5-4297-90D4-395478A4A4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="16380" yWindow="0" windowWidth="12420" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
@@ -3489,7 +3490,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3661,7 +3662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3680,9 +3681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3691,12 +3689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3713,31 +3705,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3755,44 +3726,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3812,25 +3753,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3862,9 +3797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4145,11 +4077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="D5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4168,190 +4100,190 @@
     <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="8" t="s">
         <v>264</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="8" t="s">
         <v>313</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="8" t="s">
         <v>317</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="231" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="231" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="8" t="s">
         <v>318</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="264" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="6" t="s">
         <v>348</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -4360,7 +4292,7 @@
       <c r="E6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>304</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -4372,22 +4304,22 @@
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="4" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -4396,7 +4328,7 @@
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -4408,20 +4340,20 @@
       <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="4" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4430,7 +4362,7 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3"/>
@@ -4440,22 +4372,22 @@
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="4" t="s">
         <v>367</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -4464,7 +4396,7 @@
       <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -4476,22 +4408,22 @@
       <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="4" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -4500,7 +4432,7 @@
       <c r="E10" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>609</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -4512,525 +4444,525 @@
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="6" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="L12" s="6" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="26" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="16" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="6" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="6" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="48" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="6" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="48" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="50" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="48" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="28" t="s">
         <v>603</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="6" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>627</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="28" t="s">
         <v>623</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="L20" s="52" t="s">
+      <c r="L20" s="6" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="6" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="48" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="28" t="s">
         <v>602</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="50" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="48" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="6" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="6" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="67"/>
+      <c r="E34" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25"/>
+  <autoFilter ref="A1:N25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A17:A21"/>
@@ -5043,7 +4975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -5066,727 +4998,727 @@
     <col min="12" max="12" width="7.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="8" t="s">
         <v>327</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" s="19" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="42" t="s">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="8" t="s">
         <v>329</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" s="19" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="42" t="s">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="8" t="s">
         <v>328</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="4" t="s">
         <v>504</v>
       </c>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="37" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>151</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="4" t="s">
         <v>512</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="37" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="4" t="s">
         <v>493</v>
       </c>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>571</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="L8" s="51" t="s">
+      <c r="L8" s="4" t="s">
         <v>505</v>
       </c>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="37" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>450</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="L9" s="51" t="s">
+      <c r="L9" s="4" t="s">
         <v>511</v>
       </c>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="L10" s="51" t="s">
+      <c r="L10" s="4" t="s">
         <v>493</v>
       </c>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="37" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>365</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="L11" s="51" t="s">
+      <c r="L11" s="4" t="s">
         <v>493</v>
       </c>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="37" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>454</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="37" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L13" s="51" t="s">
+      <c r="L13" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="37" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
         <v>159</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="37" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>159</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
         <v>159</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>573</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="16" t="s">
         <v>513</v>
       </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="16" t="s">
         <v>513</v>
       </c>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="37" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6" t="s">
         <v>411</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -5795,31 +5727,31 @@
       <c r="E22" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6" t="s">
         <v>368</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -5828,31 +5760,31 @@
       <c r="E23" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="14"/>
+      <c r="H23" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="37" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6" t="s">
         <v>369</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -5861,120 +5793,120 @@
       <c r="E24" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="16" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="4" t="s">
         <v>508</v>
       </c>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="26" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="16" t="s">
         <v>514</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="26" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="K26" s="26" t="s">
+      <c r="K26" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="16" t="s">
         <v>514</v>
       </c>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="28" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="16" t="s">
         <v>514</v>
       </c>
       <c r="M27" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L27"/>
+  <autoFilter ref="A1:L27" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -5989,7 +5921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6012,540 +5944,540 @@
     <col min="12" max="12" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>154</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>417</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>570</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>422</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>421</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>421</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>576</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="37" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>133</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="6" t="s">
         <v>292</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>293</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="6" t="s">
         <v>474</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="37" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6" t="s">
         <v>392</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -6554,68 +6486,68 @@
       <c r="E15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>577</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M15" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="37" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="31" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="7" t="s">
         <v>403</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16"/>
+  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -6627,7 +6559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6643,615 +6575,615 @@
     <col min="8" max="8" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="105" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="297" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>487</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>163</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>531</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="4" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="4" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="4" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="4" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="4" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="4" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="4" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="4" t="s">
         <v>515</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K19"/>
+  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -7266,7 +7198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7289,367 +7221,367 @@
     <col min="13" max="13" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="52.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="198" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>88</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="M3" s="4" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>170</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="6" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>175</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="6" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="198" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>479</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="6" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="363" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="L7" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="6" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="M8" s="52"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="6" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>178</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -7658,184 +7590,184 @@
       <c r="K10" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="4" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>546</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="4" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>144</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="4" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>144</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="4" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="330" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>88</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -7844,127 +7776,127 @@
       <c r="L15" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="27" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="25" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="264" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>99</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="L17" s="36" t="s">
+      <c r="L17" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="25" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="6" t="s">
         <v>522</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="4" t="s">
         <v>547</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="4" t="s">
         <v>551</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M18"/>
+  <autoFilter ref="A1:M18" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="3">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A14"/>
@@ -7977,7 +7909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/다이나믹팀(rest api 명세).xlsx
+++ b/다이나믹팀(rest api 명세).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\Dynamic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw\Documents\MyProject\Dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75141D23-D5D5-4297-90D4-395478A4A4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="0" windowWidth="12420" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16380" yWindow="0" windowWidth="12420" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="유저" sheetId="3" r:id="rId1"/>
@@ -28,6 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">직원!$A$1:$M$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3490,7 +3490,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4077,17 +4077,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="D5:F5"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="54.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.125" bestFit="1" customWidth="1"/>
@@ -4962,7 +4962,7 @@
       <c r="E34" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N25"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A17:A21"/>
@@ -4975,18 +4975,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="10.375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="45.25" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="45.25" customWidth="1"/>
     <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="21.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.75" bestFit="1" customWidth="1"/>
@@ -5906,7 +5905,7 @@
       <c r="M27" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L27" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:L27"/>
   <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A8"/>
@@ -5921,7 +5920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6547,7 +6546,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:M16"/>
   <mergeCells count="3">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -6559,7 +6558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7183,7 +7182,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K19" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:K19"/>
   <mergeCells count="5">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -7198,17 +7197,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="69.25" bestFit="1" customWidth="1"/>
@@ -7896,7 +7895,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M18" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:M18"/>
   <mergeCells count="3">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A14"/>
@@ -7909,7 +7908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
